--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DA74C5-352C-364A-92FD-75EEE547CE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA0E11-A66D-B74F-B90D-140B4EF6EF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリント１" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="小久保 愼祐 - 個人用ビュー" guid="{6871CE5C-C428-4AE4-8B15-2FB36474476B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
+    <customWorkbookView name="小川 美輝 - 個人用ビュー" guid="{CFF043B2-F3E0-43A7-B333-3074EF7A8EFB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
+    <customWorkbookView name="根本 楓 - 個人用ビュー" guid="{FE0F6F5C-751F-478A-BB97-7AF40DE33672}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="河野 圭助 - 個人用ビュー" guid="{D3478BCB-95C6-43B5-8AFE-4B525AE410E3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="630" activeSheetId="4"/>
-    <customWorkbookView name="根本 楓 - 個人用ビュー" guid="{FE0F6F5C-751F-478A-BB97-7AF40DE33672}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="小川 美輝 - 個人用ビュー" guid="{CFF043B2-F3E0-43A7-B333-3074EF7A8EFB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
-    <customWorkbookView name="小久保 愼祐 - 個人用ビュー" guid="{6871CE5C-C428-4AE4-8B15-2FB36474476B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -559,34 +559,34 @@
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,16 +2381,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="9">
-        <f>C8</f>
+        <f>SUM(M2:M6)</f>
         <v>210</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:J8" si="1">SUM(SUM(C2:C6)+D8)</f>
-        <v>210</v>
+        <f>B8-SUM(C2:C6)</f>
+        <v>200</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f t="shared" ref="D8:L8" si="1">C8-SUM(D2:D6)</f>
+        <v>175</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
@@ -2398,31 +2398,31 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K8" s="9">
-        <f>SUM(SUM(K2:K6)+L8)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="L8" s="9">
-        <f>SUM(L2:L6)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -2543,21 +2543,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D3478BCB-95C6-43B5-8AFE-4B525AE410E3}" scale="85">
-      <selection activeCell="O2" sqref="O2"/>
+    <customSheetView guid="{6871CE5C-C428-4AE4-8B15-2FB36474476B}" scale="85">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{FE0F6F5C-751F-478A-BB97-7AF40DE33672}" scale="85">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{CFF043B2-F3E0-43A7-B333-3074EF7A8EFB}" scale="85">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{FE0F6F5C-751F-478A-BB97-7AF40DE33672}" scale="85">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6871CE5C-C428-4AE4-8B15-2FB36474476B}" scale="85">
+    <customSheetView guid="{D3478BCB-95C6-43B5-8AFE-4B525AE410E3}" scale="85">
+      <selection activeCell="O2" sqref="O2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -2570,13 +2570,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="M4:M6 K8:L8 C8:J8" formulaRange="1"/>
+    <ignoredError sqref="M4:M6 C8:L8" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100712D3C6EE9532E4384C09D5643A9AE3F" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52055c8976b4cbd78743502d5fde74f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9449c7a2-b4a6-479a-8000-1ed6531fc7e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3aec29cbf58e095a983b62285c782782" ns2:_="">
     <xsd:import namespace="9449c7a2-b4a6-479a-8000-1ed6531fc7e8"/>
@@ -2734,12 +2740,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2750,6 +2750,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3068791-BC2A-4D60-8127-69E8F538F4CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB1FB637-3305-43F7-860F-9AC86C676AEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2767,15 +2776,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3068791-BC2A-4D60-8127-69E8F538F4CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B94027-C285-48AC-9E3F-E91622A7175C}">
   <ds:schemaRefs>
